--- a/Mock Data/MockData.xlsx
+++ b/Mock Data/MockData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="269">
   <si>
     <t>first_name</t>
   </si>
@@ -95,17 +95,749 @@
     <t>Liberal Arts</t>
   </si>
   <si>
-    <t>Audi A4</t>
-  </si>
-  <si>
     <t>Black</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>mary@outlook.com</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Jacbos</t>
+  </si>
+  <si>
+    <t>bob@rocketmail.com</t>
+  </si>
+  <si>
+    <t>bobiscool</t>
+  </si>
+  <si>
+    <t>Business Admin</t>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Audi S4</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Swoleman</t>
+  </si>
+  <si>
+    <t>salt@salty.com</t>
+  </si>
+  <si>
+    <t>sosalty</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon</t>
+  </si>
+  <si>
+    <t>Nuclear Engineering</t>
+  </si>
+  <si>
+    <t>jjacbos@gmail.com</t>
+  </si>
+  <si>
+    <t>jjacbos1</t>
+  </si>
+  <si>
+    <t>12asdf</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Mercedez Benz C250</t>
+  </si>
+  <si>
+    <t>Djobile</t>
+  </si>
+  <si>
+    <t>Djangus</t>
+  </si>
+  <si>
+    <t>Roundstone</t>
+  </si>
+  <si>
+    <t>thedjang@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>jobs@gmail.com</t>
+  </si>
+  <si>
+    <t>job2</t>
+  </si>
+  <si>
+    <t>roundstone1</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>jreed@yahoo.com</t>
+  </si>
+  <si>
+    <t>jreed1</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Vick</t>
+  </si>
+  <si>
+    <t>vick@hotmail.com</t>
+  </si>
+  <si>
+    <t>vick1</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>BMW Q7</t>
+  </si>
+  <si>
+    <t>at15432</t>
+  </si>
+  <si>
+    <t>alexander_turner@gmail.com</t>
+  </si>
+  <si>
+    <t>qwety</t>
+  </si>
+  <si>
+    <t>amber_alan@gmail.com</t>
+  </si>
+  <si>
+    <t>andreammm</t>
+  </si>
+  <si>
+    <t>andrea_amber@gmail.com</t>
+  </si>
+  <si>
+    <t>andrewlol</t>
+  </si>
+  <si>
+    <t>andrew_lopez@gmail.com</t>
+  </si>
+  <si>
+    <t>greenabld3</t>
+  </si>
+  <si>
+    <t>anna_green@gmail.com</t>
+  </si>
+  <si>
+    <t>passowrd</t>
+  </si>
+  <si>
+    <t>ashley_albert@gmail.com</t>
+  </si>
+  <si>
+    <t>15428512s</t>
+  </si>
+  <si>
+    <t>bailey_williams@gmail.com</t>
+  </si>
+  <si>
+    <t>gopats313</t>
+  </si>
+  <si>
+    <t>beverly_perry@gmail.com</t>
+  </si>
+  <si>
+    <t>bobobobb</t>
+  </si>
+  <si>
+    <t>bobby_boberbob@gmail.com</t>
+  </si>
+  <si>
+    <t>n34ac35r</t>
+  </si>
+  <si>
+    <t>brian_harris@gmail.com</t>
+  </si>
+  <si>
+    <t>12wayne3</t>
+  </si>
+  <si>
+    <t>bruce_gray@gmail.com</t>
+  </si>
+  <si>
+    <t>Canain</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>petersonCARL</t>
+  </si>
+  <si>
+    <t>carl_peterson@gmail.com</t>
+  </si>
+  <si>
+    <t>carlito4</t>
+  </si>
+  <si>
+    <t>carl_peterson2@gmail.com</t>
+  </si>
+  <si>
+    <t>wcw319</t>
+  </si>
+  <si>
+    <t>christina_wood@gmail.com</t>
+  </si>
+  <si>
+    <t>chris1254</t>
+  </si>
+  <si>
+    <t>christopher_martinez@gmail.com</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>gloria_reed@yahoo.com</t>
+  </si>
+  <si>
+    <t>wvzoowj03</t>
+  </si>
+  <si>
+    <t>hojin_li@gmail.com</t>
+  </si>
+  <si>
+    <t>hwb1954</t>
+  </si>
+  <si>
+    <t>howard_butler@yahoo.com</t>
+  </si>
+  <si>
+    <t>qwerty123</t>
+  </si>
+  <si>
+    <t>jack_phillips@yahoo.com</t>
+  </si>
+  <si>
+    <t>riseupfalcons</t>
+  </si>
+  <si>
+    <t>jacob_wright@yahoo.com</t>
+  </si>
+  <si>
+    <t>jackyW123</t>
+  </si>
+  <si>
+    <t>jacqueline_wright@gmail.com</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>jennifer_ross@yahoo.com</t>
+  </si>
+  <si>
+    <t>jjkk1122</t>
+  </si>
+  <si>
+    <t>jeremy_kelly@gmail.com</t>
+  </si>
+  <si>
+    <t>JTorr3s</t>
+  </si>
+  <si>
+    <t>jerry_torres@yahoo.com</t>
+  </si>
+  <si>
+    <t>joecox</t>
+  </si>
+  <si>
+    <t>joe_cox@yahoo.com</t>
+  </si>
+  <si>
+    <t>ilovemyfamily1</t>
+  </si>
+  <si>
+    <t>kathleen_nelson@gmail.com</t>
+  </si>
+  <si>
+    <t>19w942015</t>
+  </si>
+  <si>
+    <t>kayla_bell@hotmail.com</t>
+  </si>
+  <si>
+    <t>k123b3</t>
+  </si>
+  <si>
+    <t>keith_bell@gmail.com</t>
+  </si>
+  <si>
+    <t>kennnn534</t>
+  </si>
+  <si>
+    <t>kenneth_white@hotmail.com</t>
+  </si>
+  <si>
+    <t>clarkf123</t>
+  </si>
+  <si>
+    <t>kevin_clark@gmail.com</t>
+  </si>
+  <si>
+    <t>anice1043</t>
+  </si>
+  <si>
+    <t>lawrence_gomez@hotmail.com</t>
+  </si>
+  <si>
+    <t>mMore14</t>
+  </si>
+  <si>
+    <t>mark_moore@gmail.com</t>
+  </si>
+  <si>
+    <t>m!chelle3</t>
+  </si>
+  <si>
+    <t>michelle_taylor@hotmail.com</t>
+  </si>
+  <si>
+    <t>mildred_russell@gmail.com</t>
+  </si>
+  <si>
+    <t>nikkoallyboy3</t>
+  </si>
+  <si>
+    <t>nicholas_allan@gmail.com</t>
+  </si>
+  <si>
+    <t>nikhil</t>
+  </si>
+  <si>
+    <t>nikhil896@gmail.com</t>
+  </si>
+  <si>
+    <t>gut13rr3s</t>
+  </si>
+  <si>
+    <t>noah_gutierrez@gmail.com</t>
+  </si>
+  <si>
+    <t>martinpaul42</t>
+  </si>
+  <si>
+    <t>paul_martin@hotmail.com</t>
+  </si>
+  <si>
+    <t>r4ch31</t>
+  </si>
+  <si>
+    <t>rachel_cook@hotmail.com</t>
+  </si>
+  <si>
+    <t>fdsagh134</t>
+  </si>
+  <si>
+    <t>rebecca_russell@gmail.com</t>
+  </si>
+  <si>
+    <t>ruthhall4</t>
+  </si>
+  <si>
+    <t>ruth_hall@gmail.com</t>
+  </si>
+  <si>
+    <t>sarah_diaz@gmail.com</t>
+  </si>
+  <si>
+    <t>bigreddog3</t>
+  </si>
+  <si>
+    <t>sharon_scott@gmail.com</t>
+  </si>
+  <si>
+    <t>shuyang_chen@canain.com</t>
+  </si>
+  <si>
+    <t>shuyangiscool</t>
+  </si>
+  <si>
+    <t>shuyang_cheng@canain.com</t>
+  </si>
+  <si>
+    <t>average3</t>
+  </si>
+  <si>
+    <t>terry_howard@gmail.com</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user@email.com</t>
+  </si>
+  <si>
+    <t>vikkylove1</t>
+  </si>
+  <si>
+    <t>victoria_tyler@gmail.com</t>
+  </si>
+  <si>
+    <t>leroyjenkins</t>
+  </si>
+  <si>
+    <t>virginia_jenkins@gmail.com</t>
+  </si>
+  <si>
+    <t>vietnam5</t>
+  </si>
+  <si>
+    <t>walter_nguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>Isodamncool</t>
+  </si>
+  <si>
+    <t>wayne_foster@gmail.com</t>
+  </si>
+  <si>
+    <t>guitar15house</t>
+  </si>
+  <si>
+    <t>william_king@gmail.com</t>
+  </si>
+  <si>
+    <t>reydelsol31</t>
+  </si>
+  <si>
+    <t>zachary_rivera@gmail.com</t>
+  </si>
+  <si>
+    <t>alexander</t>
+  </si>
+  <si>
+    <t>amber</t>
+  </si>
+  <si>
+    <t>andrea</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>anna</t>
+  </si>
+  <si>
+    <t>ashley</t>
+  </si>
+  <si>
+    <t>bailey</t>
+  </si>
+  <si>
+    <t>beverly</t>
+  </si>
+  <si>
+    <t>bobby</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>bruce</t>
+  </si>
+  <si>
+    <t>carl</t>
+  </si>
+  <si>
+    <t>christina</t>
+  </si>
+  <si>
+    <t>christopher</t>
+  </si>
+  <si>
+    <t>gloria</t>
+  </si>
+  <si>
+    <t>hojin</t>
+  </si>
+  <si>
+    <t>howard</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>jacob</t>
+  </si>
+  <si>
+    <t>jacqueline</t>
+  </si>
+  <si>
+    <t>jennifer</t>
+  </si>
+  <si>
+    <t>jeremy</t>
+  </si>
+  <si>
+    <t>jerry</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>kathleen</t>
+  </si>
+  <si>
+    <t>kayla</t>
+  </si>
+  <si>
+    <t>keith</t>
+  </si>
+  <si>
+    <t>kenneth</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>lawrence</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>michelle</t>
+  </si>
+  <si>
+    <t>mildred</t>
+  </si>
+  <si>
+    <t>nicholas</t>
+  </si>
+  <si>
+    <t>noah</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>rachel</t>
+  </si>
+  <si>
+    <t>rebecca</t>
+  </si>
+  <si>
+    <t>ruth</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>sharon</t>
+  </si>
+  <si>
+    <t>shuyang</t>
+  </si>
+  <si>
+    <t>terry</t>
+  </si>
+  <si>
+    <t>victoria</t>
+  </si>
+  <si>
+    <t>virginia</t>
+  </si>
+  <si>
+    <t>walter</t>
+  </si>
+  <si>
+    <t>wayne</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>zachary</t>
+  </si>
+  <si>
+    <t>turner</t>
+  </si>
+  <si>
+    <t>alan</t>
+  </si>
+  <si>
+    <t>lopez</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>albert</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>perry</t>
+  </si>
+  <si>
+    <t>boberbob</t>
+  </si>
+  <si>
+    <t>harris</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>peterson</t>
+  </si>
+  <si>
+    <t>peterson2</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>martinez</t>
+  </si>
+  <si>
+    <t>reed</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>butler</t>
+  </si>
+  <si>
+    <t>phillips</t>
+  </si>
+  <si>
+    <t>wright</t>
+  </si>
+  <si>
+    <t>ross</t>
+  </si>
+  <si>
+    <t>kelly</t>
+  </si>
+  <si>
+    <t>torres</t>
+  </si>
+  <si>
+    <t>cox</t>
+  </si>
+  <si>
+    <t>nelson</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>clark</t>
+  </si>
+  <si>
+    <t>gomez</t>
+  </si>
+  <si>
+    <t>moore</t>
+  </si>
+  <si>
+    <t>taylor</t>
+  </si>
+  <si>
+    <t>russell</t>
+  </si>
+  <si>
+    <t>allan</t>
+  </si>
+  <si>
+    <t>gutierrez</t>
+  </si>
+  <si>
+    <t>martin</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>diaz</t>
+  </si>
+  <si>
+    <t>scott</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>cheng</t>
+  </si>
+  <si>
+    <t>tyler</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>nguyen</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>rivera</t>
+  </si>
+  <si>
+    <t>kulkarni</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +855,18 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,10 +893,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,15 +1177,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
@@ -528,10 +1274,10 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -542,11 +1288,1358 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>2011</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>2014</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <v>2012</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mock Data/MockData.xlsx
+++ b/Mock Data/MockData.xlsx
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Mock Data/MockData.xlsx
+++ b/Mock Data/MockData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="268">
   <si>
     <t>first_name</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>vehicle_capacity</t>
-  </si>
-  <si>
-    <t>is_available</t>
   </si>
   <si>
     <t>John</t>
@@ -1180,7 +1177,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,54 +1227,52 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1285,54 +1280,51 @@
       <c r="K3">
         <v>4</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
       </c>
       <c r="I5">
         <v>2011</v>
@@ -1340,54 +1332,51 @@
       <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>2014</v>
@@ -1395,94 +1384,91 @@
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
       </c>
       <c r="I11">
         <v>2012</v>
@@ -1490,1141 +1476,1138 @@
       <c r="K11">
         <v>5</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
         <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
         <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>15</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
         <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
         <v>40</v>
-      </c>
-      <c r="F36" t="s">
-        <v>41</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>15</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
         <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>16</v>
       </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
         <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>22</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
         <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>27</v>
       </c>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
         <v>40</v>
-      </c>
-      <c r="F46" t="s">
-        <v>41</v>
       </c>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
         <v>15</v>
-      </c>
-      <c r="F47" t="s">
-        <v>16</v>
       </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
         <v>15</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
       </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
         <v>21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>22</v>
       </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
         <v>26</v>
-      </c>
-      <c r="F54" t="s">
-        <v>27</v>
       </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" t="s">
         <v>40</v>
-      </c>
-      <c r="F56" t="s">
-        <v>41</v>
       </c>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
         <v>15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>16</v>
       </c>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B59" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>15</v>
-      </c>
-      <c r="F62" t="s">
-        <v>16</v>
       </c>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
         <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>22</v>
       </c>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
         <v>26</v>
-      </c>
-      <c r="F64" t="s">
-        <v>27</v>
       </c>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" s="4"/>
     </row>
